--- a/Team-Data/2011-12/1-5-2011-12.xlsx
+++ b/Team-Data/2011-12/1-5-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,106 +733,106 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H2" t="n">
-        <v>50.1</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>0.427</v>
+        <v>0.435</v>
       </c>
       <c r="L2" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.389</v>
       </c>
       <c r="O2" t="n">
-        <v>20.1</v>
+        <v>18.3</v>
       </c>
       <c r="P2" t="n">
-        <v>28.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.701</v>
+        <v>0.71</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.1</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>44.1</v>
+        <v>43</v>
       </c>
       <c r="U2" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V2" t="n">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
         <v>7</v>
       </c>
-      <c r="AD2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>10</v>
@@ -774,52 +841,52 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT2" t="n">
         <v>12</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
       </c>
       <c r="AX2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY2" t="n">
         <v>13</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="n">
         <v>14</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC2" t="n">
         <v>5</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>2.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
         <v>16</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
@@ -965,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
@@ -980,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
         <v>8</v>
@@ -995,10 +1062,10 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -1108,37 +1175,37 @@
         <v>-11</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1150,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS4" t="n">
         <v>9</v>
@@ -1162,13 +1229,13 @@
         <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
@@ -1180,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="BB4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -1290,25 +1357,25 @@
         <v>10.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
         <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>10</v>
@@ -1320,19 +1387,19 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>10</v>
@@ -1344,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>17</v>
@@ -1353,10 +1420,10 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -1472,37 +1539,37 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1523,13 +1590,13 @@
         <v>20</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
         <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -1576,82 +1643,82 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>33.3</v>
+        <v>34.1</v>
       </c>
       <c r="J7" t="n">
-        <v>80.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.412</v>
+        <v>0.421</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="N7" t="n">
-        <v>0.289</v>
+        <v>0.315</v>
       </c>
       <c r="O7" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="P7" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R7" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>30.8</v>
+        <v>29.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>22.3</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="X7" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1660,37 +1727,37 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>11</v>
@@ -1699,37 +1766,37 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>26</v>
       </c>
-      <c r="AY7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>18</v>
       </c>
-      <c r="BA7" t="n">
-        <v>21</v>
-      </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
@@ -1848,61 +1915,61 @@
         <v>4</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS8" t="n">
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -2018,40 +2085,40 @@
         <v>-6</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="n">
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2060,10 +2127,10 @@
         <v>2</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
         <v>28</v>
@@ -2072,10 +2139,10 @@
         <v>22</v>
       </c>
       <c r="AV9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2084,7 +2151,7 @@
         <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-7</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>17</v>
@@ -2224,10 +2291,10 @@
         <v>17</v>
       </c>
       <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
         <v>18</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>17</v>
       </c>
       <c r="AN10" t="n">
         <v>18</v>
@@ -2236,25 +2303,25 @@
         <v>27</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT10" t="n">
         <v>15</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>16</v>
       </c>
       <c r="AU10" t="n">
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,10 +2330,10 @@
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -2382,31 +2449,31 @@
         <v>-5.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>20</v>
       </c>
       <c r="AH11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM11" t="n">
         <v>2</v>
@@ -2430,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="AT11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2439,22 +2506,22 @@
         <v>4</v>
       </c>
       <c r="AW11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -2564,25 +2631,25 @@
         <v>-0.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
         <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2597,19 +2664,19 @@
         <v>3</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
@@ -2618,22 +2685,22 @@
         <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2755,10 +2822,10 @@
         <v>4</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>4</v>
@@ -2770,19 +2837,19 @@
         <v>2</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2806,16 +2873,16 @@
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY13" t="n">
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,142 +2935,142 @@
         <v>36.6</v>
       </c>
       <c r="J14" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.228</v>
+        <v>0.248</v>
       </c>
       <c r="O14" t="n">
-        <v>17.8</v>
+        <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.732</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
         <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI14" t="n">
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>8</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN14" t="n">
         <v>28</v>
       </c>
       <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR14" t="n">
         <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>11</v>
       </c>
       <c r="AS14" t="n">
         <v>5</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>17</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AX14" t="n">
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -3110,25 +3177,25 @@
         <v>-2.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
@@ -3149,13 +3216,13 @@
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>7</v>
@@ -3164,13 +3231,13 @@
         <v>27</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -3214,82 +3281,82 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.875</v>
+        <v>0.857</v>
       </c>
       <c r="H16" t="n">
-        <v>49.9</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="O16" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="T16" t="n">
         <v>41.4</v>
       </c>
-      <c r="J16" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="U16" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>16</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="X16" t="n">
         <v>5.3</v>
       </c>
-      <c r="M16" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="O16" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="R16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5.4</v>
-      </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
         <v>23.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>109.3</v>
+        <v>108.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -3304,64 +3371,64 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI16" t="n">
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ16" t="n">
         <v>13</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>1</v>
       </c>
       <c r="AV16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB16" t="n">
         <v>1</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
       <c r="J17" t="n">
-        <v>85</v>
+        <v>86.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.412</v>
       </c>
       <c r="L17" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.288</v>
+        <v>0.253</v>
       </c>
       <c r="O17" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="R17" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>44</v>
+      </c>
+      <c r="U17" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW17" t="n">
         <v>14</v>
       </c>
-      <c r="P17" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="R17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="U17" t="n">
-        <v>22</v>
-      </c>
-      <c r="V17" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU17" t="n">
+      <c r="AX17" t="n">
         <v>11</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -3656,40 +3723,40 @@
         <v>2.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>20</v>
       </c>
       <c r="AH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL18" t="n">
         <v>5</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AM18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO18" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>10</v>
@@ -3698,7 +3765,7 @@
         <v>26</v>
       </c>
       <c r="AR18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>4</v>
@@ -3713,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3725,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-14.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,16 +3929,16 @@
         <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM19" t="n">
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP19" t="n">
         <v>24</v>
@@ -3880,25 +3947,25 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>26</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -4020,25 +4087,25 @@
         <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI20" t="n">
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>25</v>
@@ -4047,16 +4114,16 @@
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
         <v>15</v>
@@ -4074,10 +4141,10 @@
         <v>24</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX20" t="n">
         <v>10</v>
@@ -4086,16 +4153,16 @@
         <v>30</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-3.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4226,7 +4293,7 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4238,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
@@ -4256,16 +4323,16 @@
         <v>25</v>
       </c>
       <c r="AV21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW21" t="n">
         <v>12</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AX21" t="n">
         <v>13</v>
       </c>
-      <c r="AX21" t="n">
-        <v>12</v>
-      </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4274,10 +4341,10 @@
         <v>4</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI22" t="n">
         <v>21</v>
@@ -4408,19 +4475,19 @@
         <v>7</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
         <v>4</v>
@@ -4432,16 +4499,16 @@
         <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4450,16 +4517,16 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4578,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
@@ -4593,16 +4660,16 @@
         <v>1</v>
       </c>
       <c r="AM23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,34 +4681,34 @@
         <v>20</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY23" t="n">
         <v>12</v>
       </c>
-      <c r="AV23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>9</v>
       </c>
       <c r="BB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>12</v>
@@ -4757,28 +4824,28 @@
         <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>18</v>
@@ -4808,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>16</v>
@@ -4817,10 +4884,10 @@
         <v>13</v>
       </c>
       <c r="BA24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -4930,40 +4997,40 @@
         <v>-2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL25" t="n">
         <v>19</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN25" t="n">
         <v>23</v>
       </c>
-      <c r="AL25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>24</v>
-      </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,16 +5039,16 @@
         <v>3</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>3</v>
@@ -4993,16 +5060,16 @@
         <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>37.8</v>
+        <v>37.2</v>
       </c>
       <c r="J26" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="O26" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="R26" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
         <v>5.8</v>
       </c>
-      <c r="M26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="O26" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="T26" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="U26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE26" t="n">
         <v>6</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>1</v>
@@ -5124,70 +5191,70 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>5</v>
       </c>
-      <c r="AI26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>4</v>
-      </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>5</v>
       </c>
       <c r="AP26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA26" t="n">
         <v>8</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="BB26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC26" t="n">
         <v>6</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -5216,109 +5283,109 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.375</v>
+        <v>0.286</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="J27" t="n">
-        <v>84.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="L27" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.302</v>
+        <v>0.319</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="P27" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.713</v>
+        <v>0.695</v>
       </c>
       <c r="R27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S27" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>41.9</v>
       </c>
       <c r="U27" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="W27" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>93.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-10.4</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>3</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>10</v>
@@ -5330,43 +5397,43 @@
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -5398,130 +5465,130 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.444</v>
+        <v>0.453</v>
       </c>
       <c r="L28" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>20.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.419</v>
+        <v>0.402</v>
       </c>
       <c r="O28" t="n">
-        <v>15.4</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.725</v>
+        <v>0.744</v>
       </c>
       <c r="R28" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="S28" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="T28" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V28" t="n">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="W28" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="X28" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL28" t="n">
         <v>5</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AM28" t="n">
         <v>9</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>6</v>
-      </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS28" t="n">
         <v>19</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>18</v>
       </c>
       <c r="AT28" t="n">
         <v>21</v>
@@ -5530,28 +5597,28 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>0.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>30</v>
@@ -5682,10 +5749,10 @@
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
         <v>4</v>
@@ -5694,7 +5761,7 @@
         <v>24</v>
       </c>
       <c r="AP29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
         <v>5</v>
@@ -5706,7 +5773,7 @@
         <v>8</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>4</v>
@@ -5715,10 +5782,10 @@
         <v>15</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>2</v>
@@ -5730,10 +5797,10 @@
         <v>28</v>
       </c>
       <c r="BB29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -5840,43 +5907,43 @@
         <v>-6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
@@ -5888,13 +5955,13 @@
         <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>20</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-13.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6034,28 +6101,28 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL31" t="n">
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -6064,7 +6131,7 @@
         <v>12</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
@@ -6085,13 +6152,13 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>12</v>
       </c>
       <c r="BA31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-5-2011-12</t>
+          <t>2012-01-05</t>
         </is>
       </c>
     </row>
